--- a/requirement/src/main/resources/templates/CDOReview.xlsx
+++ b/requirement/src/main/resources/templates/CDOReview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
@@ -542,8 +542,8 @@
   <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
+      <pane xSplit="3" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -671,16 +671,17 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="New SLA value should be a number" sqref="AF1:AF1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="CDO Quantity Override should be number" sqref="AG1:AG1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="CDO Price Override should be number" sqref="AK1:AK1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Data" error="CDO Price Override should be number" sqref="AK1:AK1048576">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1:AM1048576"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
